--- a/test 4.xlsx
+++ b/test 4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\surname-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5C2B7B-86A2-4A75-AF83-ED0579443979}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E51837-01B4-4284-92D3-F8A86C3EF140}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -339,18 +339,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>5854</v>
+        <v>56</v>
       </c>
       <c r="B1">
-        <v>46</v>
+        <v>894</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -358,7 +356,7 @@
         <v>4545</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -366,7 +364,7 @@
         <v>4565</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>888</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
